--- a/POWER QUERY/GoodlyPQ/1.Power Query Tricks n Tips/18.Separate Numbers from Text in Excel and Power Query/Separate-Numbers-from-Text.xlsx
+++ b/POWER QUERY/GoodlyPQ/1.Power Query Tricks n Tips/18.Separate Numbers from Text in Excel and Power Query/Separate-Numbers-from-Text.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEMP\GoodlyPQ\18.Separate Numbers from Text in Excel and Power Query\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Excel\POWER QUERY\GoodlyPQ\1.Power Query Tricks n Tips\18.Separate Numbers from Text in Excel and Power Query\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEEF3F7-CE9F-434C-99E6-247600EEF171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBDA14A-E4C3-4B64-BE41-77BA96ABFE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" xr2:uid="{CB75DEA8-7097-4E8B-B52D-99ADAC9ED4E3}"/>
   </bookViews>
@@ -865,7 +865,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
